--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_train.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_train.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013AE0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013CA0&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013D80&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013990&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013A00&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011850&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013E60&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030133E0&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011AF0&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012500&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012F80&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013DF0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DCB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011CB0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012650&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030130D0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011BD0&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DEE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011EE0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030121F0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012E30&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030131B0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41D9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030119A0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013BC0&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013140&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013B50&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012180&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013D10&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030120A0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012DC0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013760&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030127A0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012880&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011B60&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012FF0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030129D0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030125E0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030123B0&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41D8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030118C0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DC40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011C40&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013920&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DD90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011D90&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012570&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013680&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030135A0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012D50&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41EF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012F10&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012260&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012B90&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011FC0&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803011A10&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012810&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030126C0&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803012420&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013F40&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803013C30&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D41F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030136F0&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E880&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C2E0&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E650&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F3E0&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F610&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F4C0&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F840&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FBC0&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D89E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C9E0&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C740&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E8F0&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FDF0&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C970&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E730&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FD10&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F370&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C5F0&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F8B0&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C430&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E490&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E960&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C0B0&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F290&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FAE0&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CCF0&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EF80&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EC00&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EEA0&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D620&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E500&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CA50&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C890&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EA40&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F7D0&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FC30&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D770&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E2D0&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F760&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FA00&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FED0&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DC40&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CEB0&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C6D0&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E7A0&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EB20&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91ED50&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FB50&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F990&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C820&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E6C0&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12649,7 +12649,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C580&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C270&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CBA0&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12982,7 +12982,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E9D0&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EB90&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EF10&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F5A0&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FCA0&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FF40&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CB30&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D930&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F060&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C040&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F220&gt;</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D84A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C4A0&gt;</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EDC0&gt;</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
@@ -14437,7 +14437,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F0D0&gt;</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F1B0&gt;</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
@@ -14663,7 +14663,7 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EAB0&gt;</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
@@ -14778,7 +14778,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EC70&gt;</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
@@ -14889,7 +14889,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FA70&gt;</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C190&gt;</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C7B0&gt;</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91C660&gt;</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FE60&gt;</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F920&gt;</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91ECE0&gt;</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F300&gt;</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
@@ -15789,7 +15789,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F680&gt;</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F6F0&gt;</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E810&gt;</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F450&gt;</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EE30&gt;</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91EFF0&gt;</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DBD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91FD80&gt;</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
@@ -16582,7 +16582,7 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91F140&gt;</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1E00&gt;</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2180&gt;</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3CA0&gt;</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3370&gt;</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0270&gt;</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
@@ -17260,7 +17260,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2880&gt;</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3920&gt;</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1D90&gt;</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C65E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB25E0&gt;</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0A50&gt;</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0890&gt;</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -17938,7 +17938,7 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C43C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB03C0&gt;</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0820&gt;</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
@@ -18168,7 +18168,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0C10&gt;</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0AC0&gt;</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
@@ -18390,7 +18390,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3840&gt;</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -18501,7 +18501,7 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0430&gt;</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C69D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB29D0&gt;</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
@@ -18727,7 +18727,7 @@
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB12A0&gt;</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0B30&gt;</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -18949,7 +18949,7 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1460&gt;</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C68F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB28F0&gt;</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3760&gt;</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="X166" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1380&gt;</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3290&gt;</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -19512,7 +19512,7 @@
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2500&gt;</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1EE0&gt;</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -19734,7 +19734,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1540&gt;</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3530&gt;</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C49E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB09E0&gt;</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -20067,7 +20067,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1AF0&gt;</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
@@ -20178,7 +20178,7 @@
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C61F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB21F0&gt;</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -20293,7 +20293,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3F40&gt;</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
@@ -20404,7 +20404,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2C00&gt;</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -20515,7 +20515,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1CB0&gt;</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2420&gt;</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="X179" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C75A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB35A0&gt;</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
@@ -20848,7 +20848,7 @@
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C40B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB00B0&gt;</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
@@ -20959,7 +20959,7 @@
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0510&gt;</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
@@ -21070,7 +21070,7 @@
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2AB0&gt;</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0F90&gt;</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3A70&gt;</t>
         </is>
       </c>
       <c r="Y184" t="inlineStr">
@@ -21403,7 +21403,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0740&gt;</t>
         </is>
       </c>
       <c r="Y185" t="inlineStr">
@@ -21514,7 +21514,7 @@
       </c>
       <c r="X186" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2A40&gt;</t>
         </is>
       </c>
       <c r="Y186" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="X187" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1690&gt;</t>
         </is>
       </c>
       <c r="Y187" t="inlineStr">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="X188" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1B60&gt;</t>
         </is>
       </c>
       <c r="Y188" t="inlineStr">
@@ -21855,7 +21855,7 @@
       </c>
       <c r="X189" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0CF0&gt;</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C6D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB2D50&gt;</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="X191" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0200&gt;</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr">
@@ -22188,7 +22188,7 @@
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C60A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB20A0&gt;</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C4EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB0EB0&gt;</t>
         </is>
       </c>
       <c r="Y193" t="inlineStr">
@@ -22410,7 +22410,7 @@
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1620&gt;</t>
         </is>
       </c>
       <c r="Y194" t="inlineStr">
@@ -22521,7 +22521,7 @@
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C7A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB3A00&gt;</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1A80&gt;</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3C5F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FB1F50&gt;</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
@@ -22860,7 +22860,7 @@
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE06D0&gt;</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0C10&gt;</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
@@ -23090,7 +23090,7 @@
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0200&gt;</t>
         </is>
       </c>
       <c r="Y200" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0120&gt;</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0890&gt;</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
@@ -23429,7 +23429,7 @@
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE2340&gt;</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE2650&gt;</t>
         </is>
       </c>
       <c r="Y204" t="inlineStr">
@@ -23655,7 +23655,7 @@
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE28F0&gt;</t>
         </is>
       </c>
       <c r="Y205" t="inlineStr">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE2FF0&gt;</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
@@ -23877,7 +23877,7 @@
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE3290&gt;</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -23986,7 +23986,7 @@
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE3BC0&gt;</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0F90&gt;</t>
         </is>
       </c>
       <c r="Y209" t="inlineStr">
@@ -24212,7 +24212,7 @@
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0F20&gt;</t>
         </is>
       </c>
       <c r="Y210" t="inlineStr">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0D60&gt;</t>
         </is>
       </c>
       <c r="Y211" t="inlineStr">
@@ -24430,7 +24430,7 @@
       </c>
       <c r="X212" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0B30&gt;</t>
         </is>
       </c>
       <c r="Y212" t="inlineStr">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0430&gt;</t>
         </is>
       </c>
       <c r="Y213" t="inlineStr">
@@ -24652,7 +24652,7 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F02E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE02E0&gt;</t>
         </is>
       </c>
       <c r="Y214" t="inlineStr">
@@ -24761,7 +24761,7 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE0900&gt;</t>
         </is>
       </c>
       <c r="Y215" t="inlineStr">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F05F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE05F0&gt;</t>
         </is>
       </c>
       <c r="Y216" t="inlineStr">
@@ -24985,7 +24985,7 @@
       </c>
       <c r="X217" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3F00B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802FE00B0&gt;</t>
         </is>
       </c>
       <c r="Y217" t="inlineStr">
@@ -25096,7 +25096,7 @@
       </c>
       <c r="X218" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B5A0&gt;</t>
         </is>
       </c>
       <c r="Y218" t="inlineStr">
@@ -25207,7 +25207,7 @@
       </c>
       <c r="X219" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B990&gt;</t>
         </is>
       </c>
       <c r="Y219" t="inlineStr">
@@ -25318,7 +25318,7 @@
       </c>
       <c r="X220" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B140&gt;</t>
         </is>
       </c>
       <c r="Y220" t="inlineStr">
@@ -25429,7 +25429,7 @@
       </c>
       <c r="X221" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BB50&gt;</t>
         </is>
       </c>
       <c r="Y221" t="inlineStr">
@@ -25540,7 +25540,7 @@
       </c>
       <c r="X222" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AF80&gt;</t>
         </is>
       </c>
       <c r="Y222" t="inlineStr">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="X223" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AE30&gt;</t>
         </is>
       </c>
       <c r="Y223" t="inlineStr">
@@ -25758,7 +25758,7 @@
       </c>
       <c r="X224" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9387B0&gt;</t>
         </is>
       </c>
       <c r="Y224" t="inlineStr">
@@ -25869,7 +25869,7 @@
       </c>
       <c r="X225" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A6C0&gt;</t>
         </is>
       </c>
       <c r="Y225" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="X226" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B760&gt;</t>
         </is>
       </c>
       <c r="Y226" t="inlineStr">
@@ -26087,7 +26087,7 @@
       </c>
       <c r="X227" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AC70&gt;</t>
         </is>
       </c>
       <c r="Y227" t="inlineStr">
@@ -26194,7 +26194,7 @@
       </c>
       <c r="X228" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938660&gt;</t>
         </is>
       </c>
       <c r="Y228" t="inlineStr">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="X229" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B450&gt;</t>
         </is>
       </c>
       <c r="Y229" t="inlineStr">
@@ -26412,7 +26412,7 @@
       </c>
       <c r="X230" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9393F0&gt;</t>
         </is>
       </c>
       <c r="Y230" t="inlineStr">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="X231" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9394D0&gt;</t>
         </is>
       </c>
       <c r="Y231" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="X232" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938F20&gt;</t>
         </is>
       </c>
       <c r="Y232" t="inlineStr">
@@ -26741,7 +26741,7 @@
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A880&gt;</t>
         </is>
       </c>
       <c r="Y233" t="inlineStr">
@@ -26852,7 +26852,7 @@
       </c>
       <c r="X234" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BE60&gt;</t>
         </is>
       </c>
       <c r="Y234" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="X235" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938200&gt;</t>
         </is>
       </c>
       <c r="Y235" t="inlineStr">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="X236" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938580&gt;</t>
         </is>
       </c>
       <c r="Y236" t="inlineStr">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="X237" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BA00&gt;</t>
         </is>
       </c>
       <c r="Y237" t="inlineStr">
@@ -27292,7 +27292,7 @@
       </c>
       <c r="X238" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BF40&gt;</t>
         </is>
       </c>
       <c r="Y238" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="X239" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938CF0&gt;</t>
         </is>
       </c>
       <c r="Y239" t="inlineStr">
@@ -27510,7 +27510,7 @@
       </c>
       <c r="X240" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B7D0&gt;</t>
         </is>
       </c>
       <c r="Y240" t="inlineStr">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="X241" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B840&gt;</t>
         </is>
       </c>
       <c r="Y241" t="inlineStr">
@@ -27732,7 +27732,7 @@
       </c>
       <c r="X242" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9385F0&gt;</t>
         </is>
       </c>
       <c r="Y242" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="X243" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938740&gt;</t>
         </is>
       </c>
       <c r="Y243" t="inlineStr">
@@ -27954,7 +27954,7 @@
       </c>
       <c r="X244" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938EB0&gt;</t>
         </is>
       </c>
       <c r="Y244" t="inlineStr">
@@ -28065,7 +28065,7 @@
       </c>
       <c r="X245" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9389E0&gt;</t>
         </is>
       </c>
       <c r="Y245" t="inlineStr">
@@ -28176,7 +28176,7 @@
       </c>
       <c r="X246" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A960&gt;</t>
         </is>
       </c>
       <c r="Y246" t="inlineStr">
@@ -28287,7 +28287,7 @@
       </c>
       <c r="X247" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A570&gt;</t>
         </is>
       </c>
       <c r="Y247" t="inlineStr">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="X248" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AAB0&gt;</t>
         </is>
       </c>
       <c r="Y248" t="inlineStr">
@@ -28505,7 +28505,7 @@
       </c>
       <c r="X249" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939D90&gt;</t>
         </is>
       </c>
       <c r="Y249" t="inlineStr">
@@ -28618,7 +28618,7 @@
       </c>
       <c r="X250" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9398C0&gt;</t>
         </is>
       </c>
       <c r="Y250" t="inlineStr">
@@ -28729,7 +28729,7 @@
       </c>
       <c r="X251" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9391C0&gt;</t>
         </is>
       </c>
       <c r="Y251" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="X252" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939000&gt;</t>
         </is>
       </c>
       <c r="Y252" t="inlineStr">
@@ -28951,7 +28951,7 @@
       </c>
       <c r="X253" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9395B0&gt;</t>
         </is>
       </c>
       <c r="Y253" t="inlineStr">
@@ -29062,7 +29062,7 @@
       </c>
       <c r="X254" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9390E0&gt;</t>
         </is>
       </c>
       <c r="Y254" t="inlineStr">
@@ -29173,7 +29173,7 @@
       </c>
       <c r="X255" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B300&gt;</t>
         </is>
       </c>
       <c r="Y255" t="inlineStr">
@@ -29284,7 +29284,7 @@
       </c>
       <c r="X256" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B370&gt;</t>
         </is>
       </c>
       <c r="Y256" t="inlineStr">
@@ -29395,7 +29395,7 @@
       </c>
       <c r="X257" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B8B0&gt;</t>
         </is>
       </c>
       <c r="Y257" t="inlineStr">
@@ -29506,7 +29506,7 @@
       </c>
       <c r="X258" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B220&gt;</t>
         </is>
       </c>
       <c r="Y258" t="inlineStr">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="X259" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AFF0&gt;</t>
         </is>
       </c>
       <c r="Y259" t="inlineStr">
@@ -29730,7 +29730,7 @@
       </c>
       <c r="X260" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AEA0&gt;</t>
         </is>
       </c>
       <c r="Y260" t="inlineStr">
@@ -29843,7 +29843,7 @@
       </c>
       <c r="X261" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B6F0&gt;</t>
         </is>
       </c>
       <c r="Y261" t="inlineStr">
@@ -29954,7 +29954,7 @@
       </c>
       <c r="X262" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A500&gt;</t>
         </is>
       </c>
       <c r="Y262" t="inlineStr">
@@ -30067,7 +30067,7 @@
       </c>
       <c r="X263" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AB20&gt;</t>
         </is>
       </c>
       <c r="Y263" t="inlineStr">
@@ -30180,7 +30180,7 @@
       </c>
       <c r="X264" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939070&gt;</t>
         </is>
       </c>
       <c r="Y264" t="inlineStr">
@@ -30291,7 +30291,7 @@
       </c>
       <c r="X265" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938890&gt;</t>
         </is>
       </c>
       <c r="Y265" t="inlineStr">
@@ -30402,7 +30402,7 @@
       </c>
       <c r="X266" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939850&gt;</t>
         </is>
       </c>
       <c r="Y266" t="inlineStr">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="X267" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BED0&gt;</t>
         </is>
       </c>
       <c r="Y267" t="inlineStr">
@@ -30624,7 +30624,7 @@
       </c>
       <c r="X268" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F80B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9380B0&gt;</t>
         </is>
       </c>
       <c r="Y268" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="X269" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9382E0&gt;</t>
         </is>
       </c>
       <c r="Y269" t="inlineStr">
@@ -30842,7 +30842,7 @@
       </c>
       <c r="X270" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939AF0&gt;</t>
         </is>
       </c>
       <c r="Y270" t="inlineStr">
@@ -30953,7 +30953,7 @@
       </c>
       <c r="X271" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938F90&gt;</t>
         </is>
       </c>
       <c r="Y271" t="inlineStr">
@@ -31064,7 +31064,7 @@
       </c>
       <c r="X272" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939B60&gt;</t>
         </is>
       </c>
       <c r="Y272" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="X273" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A030&gt;</t>
         </is>
       </c>
       <c r="Y273" t="inlineStr">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="X274" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A7A0&gt;</t>
         </is>
       </c>
       <c r="Y274" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="X275" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B680&gt;</t>
         </is>
       </c>
       <c r="Y275" t="inlineStr">
@@ -31506,7 +31506,7 @@
       </c>
       <c r="X276" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A420&gt;</t>
         </is>
       </c>
       <c r="Y276" t="inlineStr">
@@ -31617,7 +31617,7 @@
       </c>
       <c r="X277" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938120&gt;</t>
         </is>
       </c>
       <c r="Y277" t="inlineStr">
@@ -31728,7 +31728,7 @@
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938510&gt;</t>
         </is>
       </c>
       <c r="Y278" t="inlineStr">
@@ -31835,7 +31835,7 @@
       </c>
       <c r="X279" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938820&gt;</t>
         </is>
       </c>
       <c r="Y279" t="inlineStr">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="X280" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938C10&gt;</t>
         </is>
       </c>
       <c r="Y280" t="inlineStr">
@@ -32059,7 +32059,7 @@
       </c>
       <c r="X281" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F97E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9397E0&gt;</t>
         </is>
       </c>
       <c r="Y281" t="inlineStr">
@@ -32170,7 +32170,7 @@
       </c>
       <c r="X282" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9399A0&gt;</t>
         </is>
       </c>
       <c r="Y282" t="inlineStr">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939700&gt;</t>
         </is>
       </c>
       <c r="Y283" t="inlineStr">
@@ -32392,7 +32392,7 @@
       </c>
       <c r="X284" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93ADC0&gt;</t>
         </is>
       </c>
       <c r="Y284" t="inlineStr">
@@ -32503,7 +32503,7 @@
       </c>
       <c r="X285" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A810&gt;</t>
         </is>
       </c>
       <c r="Y285" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AF10&gt;</t>
         </is>
       </c>
       <c r="Y286" t="inlineStr">
@@ -32725,7 +32725,7 @@
       </c>
       <c r="X287" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B0D0&gt;</t>
         </is>
       </c>
       <c r="Y287" t="inlineStr">
@@ -32836,7 +32836,7 @@
       </c>
       <c r="X288" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BA70&gt;</t>
         </is>
       </c>
       <c r="Y288" t="inlineStr">
@@ -32943,7 +32943,7 @@
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BBC0&gt;</t>
         </is>
       </c>
       <c r="Y289" t="inlineStr">
@@ -33050,7 +33050,7 @@
       </c>
       <c r="X290" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BD80&gt;</t>
         </is>
       </c>
       <c r="Y290" t="inlineStr">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="X291" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BD10&gt;</t>
         </is>
       </c>
       <c r="Y291" t="inlineStr">
@@ -33272,7 +33272,7 @@
       </c>
       <c r="X292" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B4C0&gt;</t>
         </is>
       </c>
       <c r="Y292" t="inlineStr">
@@ -33383,7 +33383,7 @@
       </c>
       <c r="X293" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938430&gt;</t>
         </is>
       </c>
       <c r="Y293" t="inlineStr">
@@ -33494,7 +33494,7 @@
       </c>
       <c r="X294" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939690&gt;</t>
         </is>
       </c>
       <c r="Y294" t="inlineStr">
@@ -33605,7 +33605,7 @@
       </c>
       <c r="X295" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F94D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939EE0&gt;</t>
         </is>
       </c>
       <c r="Y295" t="inlineStr">
@@ -33712,7 +33712,7 @@
       </c>
       <c r="X296" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938AC0&gt;</t>
         </is>
       </c>
       <c r="Y296" t="inlineStr">
@@ -33823,7 +33823,7 @@
       </c>
       <c r="X297" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939620&gt;</t>
         </is>
       </c>
       <c r="Y297" t="inlineStr">
@@ -33934,7 +33934,7 @@
       </c>
       <c r="X298" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BCA0&gt;</t>
         </is>
       </c>
       <c r="Y298" t="inlineStr">
@@ -34045,7 +34045,7 @@
       </c>
       <c r="X299" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AB90&gt;</t>
         </is>
       </c>
       <c r="Y299" t="inlineStr">
@@ -34156,7 +34156,7 @@
       </c>
       <c r="X300" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938970&gt;</t>
         </is>
       </c>
       <c r="Y300" t="inlineStr">
@@ -34267,7 +34267,7 @@
       </c>
       <c r="X301" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9392A0&gt;</t>
         </is>
       </c>
       <c r="Y301" t="inlineStr">
@@ -34378,7 +34378,7 @@
       </c>
       <c r="X302" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B920&gt;</t>
         </is>
       </c>
       <c r="Y302" t="inlineStr">
@@ -34491,7 +34491,7 @@
       </c>
       <c r="X303" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BC30&gt;</t>
         </is>
       </c>
       <c r="Y303" t="inlineStr">
@@ -34598,7 +34598,7 @@
       </c>
       <c r="X304" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BAE0&gt;</t>
         </is>
       </c>
       <c r="Y304" t="inlineStr">
@@ -34709,7 +34709,7 @@
       </c>
       <c r="X305" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A5E0&gt;</t>
         </is>
       </c>
       <c r="Y305" t="inlineStr">
@@ -34820,7 +34820,7 @@
       </c>
       <c r="X306" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AA40&gt;</t>
         </is>
       </c>
       <c r="Y306" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="X307" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93ACE0&gt;</t>
         </is>
       </c>
       <c r="Y307" t="inlineStr">
@@ -35038,7 +35038,7 @@
       </c>
       <c r="X308" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939150&gt;</t>
         </is>
       </c>
       <c r="Y308" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="X309" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938040&gt;</t>
         </is>
       </c>
       <c r="Y309" t="inlineStr">
@@ -35260,7 +35260,7 @@
       </c>
       <c r="X310" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9383C0&gt;</t>
         </is>
       </c>
       <c r="Y310" t="inlineStr">
@@ -35371,7 +35371,7 @@
       </c>
       <c r="X311" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939380&gt;</t>
         </is>
       </c>
       <c r="Y311" t="inlineStr">
@@ -35482,7 +35482,7 @@
       </c>
       <c r="X312" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938BA0&gt;</t>
         </is>
       </c>
       <c r="Y312" t="inlineStr">
@@ -35593,7 +35593,7 @@
       </c>
       <c r="X313" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F90E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939540&gt;</t>
         </is>
       </c>
       <c r="Y313" t="inlineStr">
@@ -35704,7 +35704,7 @@
       </c>
       <c r="X314" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938DD0&gt;</t>
         </is>
       </c>
       <c r="Y314" t="inlineStr">
@@ -35811,7 +35811,7 @@
       </c>
       <c r="X315" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939C40&gt;</t>
         </is>
       </c>
       <c r="Y315" t="inlineStr">
@@ -35922,7 +35922,7 @@
       </c>
       <c r="X316" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9386D0&gt;</t>
         </is>
       </c>
       <c r="Y316" t="inlineStr">
@@ -36033,7 +36033,7 @@
       </c>
       <c r="X317" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939BD0&gt;</t>
         </is>
       </c>
       <c r="Y317" t="inlineStr">
@@ -36144,7 +36144,7 @@
       </c>
       <c r="X318" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F89E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939A10&gt;</t>
         </is>
       </c>
       <c r="Y318" t="inlineStr">
@@ -36257,7 +36257,7 @@
       </c>
       <c r="X319" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939310&gt;</t>
         </is>
       </c>
       <c r="Y319" t="inlineStr">
@@ -36370,7 +36370,7 @@
       </c>
       <c r="X320" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939930&gt;</t>
         </is>
       </c>
       <c r="Y320" t="inlineStr">
@@ -36477,7 +36477,7 @@
       </c>
       <c r="X321" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A9D0&gt;</t>
         </is>
       </c>
       <c r="Y321" t="inlineStr">
@@ -36588,7 +36588,7 @@
       </c>
       <c r="X322" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F84A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F9384A0&gt;</t>
         </is>
       </c>
       <c r="Y322" t="inlineStr">
@@ -36695,7 +36695,7 @@
       </c>
       <c r="X323" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938900&gt;</t>
         </is>
       </c>
       <c r="Y323" t="inlineStr">
@@ -36812,7 +36812,7 @@
       </c>
       <c r="X324" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938D60&gt;</t>
         </is>
       </c>
       <c r="Y324" t="inlineStr">
@@ -36923,7 +36923,7 @@
       </c>
       <c r="X325" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B060&gt;</t>
         </is>
       </c>
       <c r="Y325" t="inlineStr">
@@ -37034,7 +37034,7 @@
       </c>
       <c r="X326" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B1B0&gt;</t>
         </is>
       </c>
       <c r="Y326" t="inlineStr">
@@ -37141,7 +37141,7 @@
       </c>
       <c r="X327" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939D20&gt;</t>
         </is>
       </c>
       <c r="Y327" t="inlineStr">
@@ -37248,7 +37248,7 @@
       </c>
       <c r="X328" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939E70&gt;</t>
         </is>
       </c>
       <c r="Y328" t="inlineStr">
@@ -37359,7 +37359,7 @@
       </c>
       <c r="X329" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939460&gt;</t>
         </is>
       </c>
       <c r="Y329" t="inlineStr">
@@ -37470,7 +37470,7 @@
       </c>
       <c r="X330" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939CB0&gt;</t>
         </is>
       </c>
       <c r="Y330" t="inlineStr">
@@ -37583,7 +37583,7 @@
       </c>
       <c r="X331" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938A50&gt;</t>
         </is>
       </c>
       <c r="Y331" t="inlineStr">
@@ -37694,7 +37694,7 @@
       </c>
       <c r="X332" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B530&gt;</t>
         </is>
       </c>
       <c r="Y332" t="inlineStr">
@@ -37805,7 +37805,7 @@
       </c>
       <c r="X333" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B610&gt;</t>
         </is>
       </c>
       <c r="Y333" t="inlineStr">
@@ -37916,7 +37916,7 @@
       </c>
       <c r="X334" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FBDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93BDF0&gt;</t>
         </is>
       </c>
       <c r="Y334" t="inlineStr">
@@ -38027,7 +38027,7 @@
       </c>
       <c r="X335" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938190&gt;</t>
         </is>
       </c>
       <c r="Y335" t="inlineStr">
@@ -38134,7 +38134,7 @@
       </c>
       <c r="X336" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938270&gt;</t>
         </is>
       </c>
       <c r="Y336" t="inlineStr">
@@ -38245,7 +38245,7 @@
       </c>
       <c r="X337" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938350&gt;</t>
         </is>
       </c>
       <c r="Y337" t="inlineStr">
@@ -38356,7 +38356,7 @@
       </c>
       <c r="X338" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939A80&gt;</t>
         </is>
       </c>
       <c r="Y338" t="inlineStr">
@@ -38463,7 +38463,7 @@
       </c>
       <c r="X339" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939230&gt;</t>
         </is>
       </c>
       <c r="Y339" t="inlineStr">
@@ -38576,7 +38576,7 @@
       </c>
       <c r="X340" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939E00&gt;</t>
         </is>
       </c>
       <c r="Y340" t="inlineStr">
@@ -38687,7 +38687,7 @@
       </c>
       <c r="X341" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F9230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F939770&gt;</t>
         </is>
       </c>
       <c r="Y341" t="inlineStr">
@@ -38798,7 +38798,7 @@
       </c>
       <c r="X342" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F93F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938B30&gt;</t>
         </is>
       </c>
       <c r="Y342" t="inlineStr">
@@ -38909,7 +38909,7 @@
       </c>
       <c r="X343" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938E40&gt;</t>
         </is>
       </c>
       <c r="Y343" t="inlineStr">
@@ -39020,7 +39020,7 @@
       </c>
       <c r="X344" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A490&gt;</t>
         </is>
       </c>
       <c r="Y344" t="inlineStr">
@@ -39137,7 +39137,7 @@
       </c>
       <c r="X345" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AC00&gt;</t>
         </is>
       </c>
       <c r="Y345" t="inlineStr">
@@ -39244,7 +39244,7 @@
       </c>
       <c r="X346" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93AD50&gt;</t>
         </is>
       </c>
       <c r="Y346" t="inlineStr">
@@ -39357,7 +39357,7 @@
       </c>
       <c r="X347" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A730&gt;</t>
         </is>
       </c>
       <c r="Y347" t="inlineStr">
@@ -39468,7 +39468,7 @@
       </c>
       <c r="X348" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93A8F0&gt;</t>
         </is>
       </c>
       <c r="Y348" t="inlineStr">
@@ -39579,7 +39579,7 @@
       </c>
       <c r="X349" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3FB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F93B290&gt;</t>
         </is>
       </c>
       <c r="Y349" t="inlineStr">
@@ -39690,7 +39690,7 @@
       </c>
       <c r="X350" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3F8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F938C80&gt;</t>
         </is>
       </c>
       <c r="Y350" t="inlineStr">
@@ -39801,7 +39801,7 @@
       </c>
       <c r="X351" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A29D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82810&gt;</t>
         </is>
       </c>
       <c r="Y351" t="inlineStr">
@@ -39912,7 +39912,7 @@
       </c>
       <c r="X352" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F830D0&gt;</t>
         </is>
       </c>
       <c r="Y352" t="inlineStr">
@@ -40023,7 +40023,7 @@
       </c>
       <c r="X353" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F806D0&gt;</t>
         </is>
       </c>
       <c r="Y353" t="inlineStr">
@@ -40134,7 +40134,7 @@
       </c>
       <c r="X354" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81F50&gt;</t>
         </is>
       </c>
       <c r="Y354" t="inlineStr">
@@ -40245,7 +40245,7 @@
       </c>
       <c r="X355" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82EA0&gt;</t>
         </is>
       </c>
       <c r="Y355" t="inlineStr">
@@ -40356,7 +40356,7 @@
       </c>
       <c r="X356" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83C30&gt;</t>
         </is>
       </c>
       <c r="Y356" t="inlineStr">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="X357" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81540&gt;</t>
         </is>
       </c>
       <c r="Y357" t="inlineStr">
@@ -40578,7 +40578,7 @@
       </c>
       <c r="X358" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80200&gt;</t>
         </is>
       </c>
       <c r="Y358" t="inlineStr">
@@ -40689,7 +40689,7 @@
       </c>
       <c r="X359" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82650&gt;</t>
         </is>
       </c>
       <c r="Y359" t="inlineStr">
@@ -40800,7 +40800,7 @@
       </c>
       <c r="X360" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82420&gt;</t>
         </is>
       </c>
       <c r="Y360" t="inlineStr">
@@ -40911,7 +40911,7 @@
       </c>
       <c r="X361" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83D10&gt;</t>
         </is>
       </c>
       <c r="Y361" t="inlineStr">
@@ -41018,7 +41018,7 @@
       </c>
       <c r="X362" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82B20&gt;</t>
         </is>
       </c>
       <c r="Y362" t="inlineStr">
@@ -41129,7 +41129,7 @@
       </c>
       <c r="X363" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81A80&gt;</t>
         </is>
       </c>
       <c r="Y363" t="inlineStr">
@@ -41240,7 +41240,7 @@
       </c>
       <c r="X364" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F814D0&gt;</t>
         </is>
       </c>
       <c r="Y364" t="inlineStr">
@@ -41351,7 +41351,7 @@
       </c>
       <c r="X365" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F817E0&gt;</t>
         </is>
       </c>
       <c r="Y365" t="inlineStr">
@@ -41462,7 +41462,7 @@
       </c>
       <c r="X366" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81230&gt;</t>
         </is>
       </c>
       <c r="Y366" t="inlineStr">
@@ -41573,7 +41573,7 @@
       </c>
       <c r="X367" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A04A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80580&gt;</t>
         </is>
       </c>
       <c r="Y367" t="inlineStr">
@@ -41680,7 +41680,7 @@
       </c>
       <c r="X368" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81E70&gt;</t>
         </is>
       </c>
       <c r="Y368" t="inlineStr">
@@ -41791,7 +41791,7 @@
       </c>
       <c r="X369" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82500&gt;</t>
         </is>
       </c>
       <c r="Y369" t="inlineStr">
@@ -41902,7 +41902,7 @@
       </c>
       <c r="X370" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83A00&gt;</t>
         </is>
       </c>
       <c r="Y370" t="inlineStr">
@@ -42009,7 +42009,7 @@
       </c>
       <c r="X371" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A27A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F833E0&gt;</t>
         </is>
       </c>
       <c r="Y371" t="inlineStr">
@@ -42120,7 +42120,7 @@
       </c>
       <c r="X372" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80F90&gt;</t>
         </is>
       </c>
       <c r="Y372" t="inlineStr">
@@ -42227,7 +42227,7 @@
       </c>
       <c r="X373" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A02E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80DD0&gt;</t>
         </is>
       </c>
       <c r="Y373" t="inlineStr">
@@ -42334,7 +42334,7 @@
       </c>
       <c r="X374" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83680&gt;</t>
         </is>
       </c>
       <c r="Y374" t="inlineStr">
@@ -42441,7 +42441,7 @@
       </c>
       <c r="X375" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A09E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82570&gt;</t>
         </is>
       </c>
       <c r="Y375" t="inlineStr">
@@ -42552,7 +42552,7 @@
       </c>
       <c r="X376" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F828F0&gt;</t>
         </is>
       </c>
       <c r="Y376" t="inlineStr">
@@ -42663,7 +42663,7 @@
       </c>
       <c r="X377" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82C70&gt;</t>
         </is>
       </c>
       <c r="Y377" t="inlineStr">
@@ -42770,7 +42770,7 @@
       </c>
       <c r="X378" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83300&gt;</t>
         </is>
       </c>
       <c r="Y378" t="inlineStr">
@@ -42883,7 +42883,7 @@
       </c>
       <c r="X379" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F819A0&gt;</t>
         </is>
       </c>
       <c r="Y379" t="inlineStr">
@@ -42994,7 +42994,7 @@
       </c>
       <c r="X380" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81380&gt;</t>
         </is>
       </c>
       <c r="Y380" t="inlineStr">
@@ -43105,7 +43105,7 @@
       </c>
       <c r="X381" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81460&gt;</t>
         </is>
       </c>
       <c r="Y381" t="inlineStr">
@@ -43212,7 +43212,7 @@
       </c>
       <c r="X382" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F810E0&gt;</t>
         </is>
       </c>
       <c r="Y382" t="inlineStr">
@@ -43323,7 +43323,7 @@
       </c>
       <c r="X383" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F837D0&gt;</t>
         </is>
       </c>
       <c r="Y383" t="inlineStr">
@@ -43434,7 +43434,7 @@
       </c>
       <c r="X384" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82CE0&gt;</t>
         </is>
       </c>
       <c r="Y384" t="inlineStr">
@@ -43545,7 +43545,7 @@
       </c>
       <c r="X385" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83ED0&gt;</t>
         </is>
       </c>
       <c r="Y385" t="inlineStr">
@@ -43656,7 +43656,7 @@
       </c>
       <c r="X386" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80660&gt;</t>
         </is>
       </c>
       <c r="Y386" t="inlineStr">
@@ -43767,7 +43767,7 @@
       </c>
       <c r="X387" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80350&gt;</t>
         </is>
       </c>
       <c r="Y387" t="inlineStr">
@@ -43878,7 +43878,7 @@
       </c>
       <c r="X388" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83F40&gt;</t>
         </is>
       </c>
       <c r="Y388" t="inlineStr">
@@ -43989,7 +43989,7 @@
       </c>
       <c r="X389" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F809E0&gt;</t>
         </is>
       </c>
       <c r="Y389" t="inlineStr">
@@ -44100,7 +44100,7 @@
       </c>
       <c r="X390" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81D90&gt;</t>
         </is>
       </c>
       <c r="Y390" t="inlineStr">
@@ -44207,7 +44207,7 @@
       </c>
       <c r="X391" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F818C0&gt;</t>
         </is>
       </c>
       <c r="Y391" t="inlineStr">
@@ -44320,7 +44320,7 @@
       </c>
       <c r="X392" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A05F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82D50&gt;</t>
         </is>
       </c>
       <c r="Y392" t="inlineStr">
@@ -44431,7 +44431,7 @@
       </c>
       <c r="X393" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80040&gt;</t>
         </is>
       </c>
       <c r="Y393" t="inlineStr">
@@ -44544,7 +44544,7 @@
       </c>
       <c r="X394" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83990&gt;</t>
         </is>
       </c>
       <c r="Y394" t="inlineStr">
@@ -44655,7 +44655,7 @@
       </c>
       <c r="X395" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82490&gt;</t>
         </is>
       </c>
       <c r="Y395" t="inlineStr">
@@ -44766,7 +44766,7 @@
       </c>
       <c r="X396" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80CF0&gt;</t>
         </is>
       </c>
       <c r="Y396" t="inlineStr">
@@ -44873,7 +44873,7 @@
       </c>
       <c r="X397" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80BA0&gt;</t>
         </is>
       </c>
       <c r="Y397" t="inlineStr">
@@ -44984,7 +44984,7 @@
       </c>
       <c r="X398" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80890&gt;</t>
         </is>
       </c>
       <c r="Y398" t="inlineStr">
@@ -45095,7 +45095,7 @@
       </c>
       <c r="X399" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80740&gt;</t>
         </is>
       </c>
       <c r="Y399" t="inlineStr">
@@ -45208,7 +45208,7 @@
       </c>
       <c r="X400" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F803C0&gt;</t>
         </is>
       </c>
       <c r="Y400" t="inlineStr">
@@ -45321,7 +45321,7 @@
       </c>
       <c r="X401" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83140&gt;</t>
         </is>
       </c>
       <c r="Y401" t="inlineStr">
@@ -45428,7 +45428,7 @@
       </c>
       <c r="X402" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82260&gt;</t>
         </is>
       </c>
       <c r="Y402" t="inlineStr">
@@ -45535,7 +45535,7 @@
       </c>
       <c r="X403" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82960&gt;</t>
         </is>
       </c>
       <c r="Y403" t="inlineStr">
@@ -45646,7 +45646,7 @@
       </c>
       <c r="X404" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F838B0&gt;</t>
         </is>
       </c>
       <c r="Y404" t="inlineStr">
@@ -45757,7 +45757,7 @@
       </c>
       <c r="X405" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A14D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82F80&gt;</t>
         </is>
       </c>
       <c r="Y405" t="inlineStr">
@@ -45868,7 +45868,7 @@
       </c>
       <c r="X406" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81620&gt;</t>
         </is>
       </c>
       <c r="Y406" t="inlineStr">
@@ -45975,7 +45975,7 @@
       </c>
       <c r="X407" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A30D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F822D0&gt;</t>
         </is>
       </c>
       <c r="Y407" t="inlineStr">
@@ -46086,7 +46086,7 @@
       </c>
       <c r="X408" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83AE0&gt;</t>
         </is>
       </c>
       <c r="Y408" t="inlineStr">
@@ -46197,7 +46197,7 @@
       </c>
       <c r="X409" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A31B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82AB0&gt;</t>
         </is>
       </c>
       <c r="Y409" t="inlineStr">
@@ -46308,7 +46308,7 @@
       </c>
       <c r="X410" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82730&gt;</t>
         </is>
       </c>
       <c r="Y410" t="inlineStr">
@@ -46421,7 +46421,7 @@
       </c>
       <c r="X411" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81930&gt;</t>
         </is>
       </c>
       <c r="Y411" t="inlineStr">
@@ -46534,7 +46534,7 @@
       </c>
       <c r="X412" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80AC0&gt;</t>
         </is>
       </c>
       <c r="Y412" t="inlineStr">
@@ -46647,7 +46647,7 @@
       </c>
       <c r="X413" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80900&gt;</t>
         </is>
       </c>
       <c r="Y413" t="inlineStr">
@@ -46760,7 +46760,7 @@
       </c>
       <c r="X414" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82C00&gt;</t>
         </is>
       </c>
       <c r="Y414" t="inlineStr">
@@ -46871,7 +46871,7 @@
       </c>
       <c r="X415" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80190&gt;</t>
         </is>
       </c>
       <c r="Y415" t="inlineStr">
@@ -46978,7 +46978,7 @@
       </c>
       <c r="X416" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A00B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80120&gt;</t>
         </is>
       </c>
       <c r="Y416" t="inlineStr">
@@ -47089,7 +47089,7 @@
       </c>
       <c r="X417" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83760&gt;</t>
         </is>
       </c>
       <c r="Y417" t="inlineStr">
@@ -47202,7 +47202,7 @@
       </c>
       <c r="X418" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83E60&gt;</t>
         </is>
       </c>
       <c r="Y418" t="inlineStr">
@@ -47313,7 +47313,7 @@
       </c>
       <c r="X419" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82880&gt;</t>
         </is>
       </c>
       <c r="Y419" t="inlineStr">
@@ -47424,7 +47424,7 @@
       </c>
       <c r="X420" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83060&gt;</t>
         </is>
       </c>
       <c r="Y420" t="inlineStr">
@@ -47537,7 +47537,7 @@
       </c>
       <c r="X421" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81700&gt;</t>
         </is>
       </c>
       <c r="Y421" t="inlineStr">
@@ -47650,7 +47650,7 @@
       </c>
       <c r="X422" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81690&gt;</t>
         </is>
       </c>
       <c r="Y422" t="inlineStr">
@@ -47763,7 +47763,7 @@
       </c>
       <c r="X423" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80EB0&gt;</t>
         </is>
       </c>
       <c r="Y423" t="inlineStr">
@@ -47874,7 +47874,7 @@
       </c>
       <c r="X424" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81770&gt;</t>
         </is>
       </c>
       <c r="Y424" t="inlineStr">
@@ -47985,7 +47985,7 @@
       </c>
       <c r="X425" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F825E0&gt;</t>
         </is>
       </c>
       <c r="Y425" t="inlineStr">
@@ -48092,7 +48092,7 @@
       </c>
       <c r="X426" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83CA0&gt;</t>
         </is>
       </c>
       <c r="Y426" t="inlineStr">
@@ -48203,7 +48203,7 @@
       </c>
       <c r="X427" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82030&gt;</t>
         </is>
       </c>
       <c r="Y427" t="inlineStr">
@@ -48310,7 +48310,7 @@
       </c>
       <c r="X428" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81BD0&gt;</t>
         </is>
       </c>
       <c r="Y428" t="inlineStr">
@@ -48423,7 +48423,7 @@
       </c>
       <c r="X429" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83D80&gt;</t>
         </is>
       </c>
       <c r="Y429" t="inlineStr">
@@ -48534,7 +48534,7 @@
       </c>
       <c r="X430" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82A40&gt;</t>
         </is>
       </c>
       <c r="Y430" t="inlineStr">
@@ -48647,7 +48647,7 @@
       </c>
       <c r="X431" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81000&gt;</t>
         </is>
       </c>
       <c r="Y431" t="inlineStr">
@@ -48758,7 +48758,7 @@
       </c>
       <c r="X432" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A38B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81EE0&gt;</t>
         </is>
       </c>
       <c r="Y432" t="inlineStr">
@@ -48871,7 +48871,7 @@
       </c>
       <c r="X433" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F815B0&gt;</t>
         </is>
       </c>
       <c r="Y433" t="inlineStr">
@@ -48978,7 +48978,7 @@
       </c>
       <c r="X434" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A26C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83DF0&gt;</t>
         </is>
       </c>
       <c r="Y434" t="inlineStr">
@@ -49085,7 +49085,7 @@
       </c>
       <c r="X435" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F826C0&gt;</t>
         </is>
       </c>
       <c r="Y435" t="inlineStr">
@@ -49196,7 +49196,7 @@
       </c>
       <c r="X436" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F800B0&gt;</t>
         </is>
       </c>
       <c r="Y436" t="inlineStr">
@@ -49307,7 +49307,7 @@
       </c>
       <c r="X437" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82340&gt;</t>
         </is>
       </c>
       <c r="Y437" t="inlineStr">
@@ -49418,7 +49418,7 @@
       </c>
       <c r="X438" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F83840&gt;</t>
         </is>
       </c>
       <c r="Y438" t="inlineStr">
@@ -49529,7 +49529,7 @@
       </c>
       <c r="X439" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81AF0&gt;</t>
         </is>
       </c>
       <c r="Y439" t="inlineStr">
@@ -49640,7 +49640,7 @@
       </c>
       <c r="X440" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80C10&gt;</t>
         </is>
       </c>
       <c r="Y440" t="inlineStr">
@@ -49751,7 +49751,7 @@
       </c>
       <c r="X441" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F804A0&gt;</t>
         </is>
       </c>
       <c r="Y441" t="inlineStr">
@@ -49862,7 +49862,7 @@
       </c>
       <c r="X442" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82DC0&gt;</t>
         </is>
       </c>
       <c r="Y442" t="inlineStr">
@@ -49975,7 +49975,7 @@
       </c>
       <c r="X443" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80E40&gt;</t>
         </is>
       </c>
       <c r="Y443" t="inlineStr">
@@ -50088,7 +50088,7 @@
       </c>
       <c r="X444" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F831B0&gt;</t>
         </is>
       </c>
       <c r="Y444" t="inlineStr">
@@ -50199,7 +50199,7 @@
       </c>
       <c r="X445" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81B60&gt;</t>
         </is>
       </c>
       <c r="Y445" t="inlineStr">
@@ -50312,7 +50312,7 @@
       </c>
       <c r="X446" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A21F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F82110&gt;</t>
         </is>
       </c>
       <c r="Y446" t="inlineStr">
@@ -50419,7 +50419,7 @@
       </c>
       <c r="X447" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A2110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F829D0&gt;</t>
         </is>
       </c>
       <c r="Y447" t="inlineStr">
@@ -50530,7 +50530,7 @@
       </c>
       <c r="X448" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F81150&gt;</t>
         </is>
       </c>
       <c r="Y448" t="inlineStr">
@@ -50643,7 +50643,7 @@
       </c>
       <c r="X449" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80A50&gt;</t>
         </is>
       </c>
       <c r="Y449" t="inlineStr">
@@ -50754,7 +50754,7 @@
       </c>
       <c r="X450" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A07B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80820&gt;</t>
         </is>
       </c>
       <c r="Y450" t="inlineStr">
@@ -50865,7 +50865,7 @@
       </c>
       <c r="X451" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A28F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F827A0&gt;</t>
         </is>
       </c>
       <c r="Y451" t="inlineStr">
@@ -50976,7 +50976,7 @@
       </c>
       <c r="X452" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A25E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F820A0&gt;</t>
         </is>
       </c>
       <c r="Y452" t="inlineStr">
@@ -51089,7 +51089,7 @@
       </c>
       <c r="X453" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D3A3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E802F80C80&gt;</t>
         </is>
       </c>
       <c r="Y453" t="inlineStr">
@@ -51200,7 +51200,7 @@
       </c>
       <c r="X454" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049690&gt;</t>
         </is>
       </c>
       <c r="Y454" t="inlineStr">
@@ -51307,7 +51307,7 @@
       </c>
       <c r="X455" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44C270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048270&gt;</t>
         </is>
       </c>
       <c r="Y455" t="inlineStr">
@@ -51414,7 +51414,7 @@
       </c>
       <c r="X456" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049310&gt;</t>
         </is>
       </c>
       <c r="Y456" t="inlineStr">
@@ -51527,7 +51527,7 @@
       </c>
       <c r="X457" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44E490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304A490&gt;</t>
         </is>
       </c>
       <c r="Y457" t="inlineStr">
@@ -51640,7 +51640,7 @@
       </c>
       <c r="X458" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304BD80&gt;</t>
         </is>
       </c>
       <c r="Y458" t="inlineStr">
@@ -51751,7 +51751,7 @@
       </c>
       <c r="X459" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304BCA0&gt;</t>
         </is>
       </c>
       <c r="Y459" t="inlineStr">
@@ -51862,7 +51862,7 @@
       </c>
       <c r="X460" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304AEA0&gt;</t>
         </is>
       </c>
       <c r="Y460" t="inlineStr">
@@ -51975,7 +51975,7 @@
       </c>
       <c r="X461" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304A5E0&gt;</t>
         </is>
       </c>
       <c r="Y461" t="inlineStr">
@@ -52088,7 +52088,7 @@
       </c>
       <c r="X462" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048890&gt;</t>
         </is>
       </c>
       <c r="Y462" t="inlineStr">
@@ -52201,7 +52201,7 @@
       </c>
       <c r="X463" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049150&gt;</t>
         </is>
       </c>
       <c r="Y463" t="inlineStr">
@@ -52314,7 +52314,7 @@
       </c>
       <c r="X464" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44CD60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048D60&gt;</t>
         </is>
       </c>
       <c r="Y464" t="inlineStr">
@@ -52427,7 +52427,7 @@
       </c>
       <c r="X465" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44CA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048A50&gt;</t>
         </is>
       </c>
       <c r="Y465" t="inlineStr">
@@ -52540,7 +52540,7 @@
       </c>
       <c r="X466" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304BC30&gt;</t>
         </is>
       </c>
       <c r="Y466" t="inlineStr">
@@ -52653,7 +52653,7 @@
       </c>
       <c r="X467" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049930&gt;</t>
         </is>
       </c>
       <c r="Y467" t="inlineStr">
@@ -52764,7 +52764,7 @@
       </c>
       <c r="X468" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44DCB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049CB0&gt;</t>
         </is>
       </c>
       <c r="Y468" t="inlineStr">
@@ -52877,7 +52877,7 @@
       </c>
       <c r="X469" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44DA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049A80&gt;</t>
         </is>
       </c>
       <c r="Y469" t="inlineStr">
@@ -52990,7 +52990,7 @@
       </c>
       <c r="X470" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049850&gt;</t>
         </is>
       </c>
       <c r="Y470" t="inlineStr">
@@ -53103,7 +53103,7 @@
       </c>
       <c r="X471" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049620&gt;</t>
         </is>
       </c>
       <c r="Y471" t="inlineStr">
@@ -53214,7 +53214,7 @@
       </c>
       <c r="X472" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049460&gt;</t>
         </is>
       </c>
       <c r="Y472" t="inlineStr">
@@ -53325,7 +53325,7 @@
       </c>
       <c r="X473" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049070&gt;</t>
         </is>
       </c>
       <c r="Y473" t="inlineStr">
@@ -53436,7 +53436,7 @@
       </c>
       <c r="X474" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44D000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049000&gt;</t>
         </is>
       </c>
       <c r="Y474" t="inlineStr">
@@ -53549,7 +53549,7 @@
       </c>
       <c r="X475" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44CF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048F20&gt;</t>
         </is>
       </c>
       <c r="Y475" t="inlineStr">
@@ -53662,7 +53662,7 @@
       </c>
       <c r="X476" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048C80&gt;</t>
         </is>
       </c>
       <c r="Y476" t="inlineStr">
@@ -53775,7 +53775,7 @@
       </c>
       <c r="X477" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048BA0&gt;</t>
         </is>
       </c>
       <c r="Y477" t="inlineStr">
@@ -53888,7 +53888,7 @@
       </c>
       <c r="X478" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44CB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048B30&gt;</t>
         </is>
       </c>
       <c r="Y478" t="inlineStr">
@@ -54001,7 +54001,7 @@
       </c>
       <c r="X479" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44C510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803048510&gt;</t>
         </is>
       </c>
       <c r="Y479" t="inlineStr">
@@ -54114,7 +54114,7 @@
       </c>
       <c r="X480" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304A420&gt;</t>
         </is>
       </c>
       <c r="Y480" t="inlineStr">
@@ -54227,7 +54227,7 @@
       </c>
       <c r="X481" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304BF40&gt;</t>
         </is>
       </c>
       <c r="Y481" t="inlineStr">
@@ -54340,7 +54340,7 @@
       </c>
       <c r="X482" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304B450&gt;</t>
         </is>
       </c>
       <c r="Y482" t="inlineStr">
@@ -54457,7 +54457,7 @@
       </c>
       <c r="X483" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304A0A0&gt;</t>
         </is>
       </c>
       <c r="Y483" t="inlineStr">
@@ -54570,7 +54570,7 @@
       </c>
       <c r="X484" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304A7A0&gt;</t>
         </is>
       </c>
       <c r="Y484" t="inlineStr">
@@ -54687,7 +54687,7 @@
       </c>
       <c r="X485" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304AB20&gt;</t>
         </is>
       </c>
       <c r="Y485" t="inlineStr">
@@ -54800,7 +54800,7 @@
       </c>
       <c r="X486" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44FD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304AC00&gt;</t>
         </is>
       </c>
       <c r="Y486" t="inlineStr">
@@ -54913,7 +54913,7 @@
       </c>
       <c r="X487" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E8030489E0&gt;</t>
         </is>
       </c>
       <c r="Y487" t="inlineStr">
@@ -55026,7 +55026,7 @@
       </c>
       <c r="X488" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44DE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049E00&gt;</t>
         </is>
       </c>
       <c r="Y488" t="inlineStr">
@@ -55139,7 +55139,7 @@
       </c>
       <c r="X489" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44DD20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E803049D20&gt;</t>
         </is>
       </c>
       <c r="Y489" t="inlineStr">
@@ -55252,7 +55252,7 @@
       </c>
       <c r="X490" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304A880&gt;</t>
         </is>
       </c>
       <c r="Y490" t="inlineStr">
@@ -55365,7 +55365,7 @@
       </c>
       <c r="X491" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1D44E6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E80304AB90&gt;</t>
         </is>
       </c>
       <c r="Y491" t="inlineStr">
